--- a/Data_processed/electricity/electricity Rest of the World.xlsx
+++ b/Data_processed/electricity/electricity Rest of the World.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/electricity/electricity Rest of the World.xlsx
+++ b/Data_processed/electricity/electricity Rest of the World.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,14 +470,6005 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>carbon (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ced (MJ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>climate change (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electricity .Middle Africa production</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002456227733333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.2180735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.8486147e-08</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Electricity .Middle East production</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2002403266666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.7140389</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.5832315e-06</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Electricity .North America production</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1237401733333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.3437496</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.4502044e-06</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Electricity .South America production</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05666686333333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.775766</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5800225e-06</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Electricity Afghanistan production</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04538790466666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.611065</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.2655352e-06</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Electricity Africa production</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1878088666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.5880701</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.2366095e-06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Electricity Albania production</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.002629633666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.3104022</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.332116299999999e-08</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electricity Algeria production</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2137067866666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.6712261</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.9587123e-06</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Electricity American Samoa production</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2098115333333334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.9987208</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.8501022e-06</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Electricity Angola production</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05725304600000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.6015459</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.5963668e-06</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electricity Antigua and Barbuda production</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.23518924</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.3614304</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.5577001e-06</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Electricity Argentina production</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1298517866666667</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.3031378</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.6206124e-06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Electricity Armenia production</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08950985333333333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.4357783</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.4957723e-06</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Electricity Aruba production</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2111473466666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.1367428</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.8873484e-06</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Electricity Asia Pacific production</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1878338533333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.5691369</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.2373063e-06</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Electricity Australia production</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1619151</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.3086463</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.5146226e-06</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Electricity Azerbaijan production</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1935233</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.4917582</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.3959431e-06</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Electricity Bahamas production</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.24880228</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.48945</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.9372678e-06</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Electricity Bahrain production</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1855760466666667</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.3106304</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.1743527e-06</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electricity Bangladesh production</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2182610866666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.7329075</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.0856982e-06</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Electricity Barbados production</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2297866</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.2966937</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.4070601e-06</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Electricity Belarus production</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1680454933333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5865942</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.6855543e-06</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electricity Belize production</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.049057318</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.0816143</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.3678482e-06</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Electricity Benin production</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2209291666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.8496213</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.1600915e-06</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Electricity Bermuda production</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.22047476</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.1491958</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.1474213e-06</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Electricity Bhutan production</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.002464170333333333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.2320852</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.8707607e-08</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Electricity Bolivia production</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.14103468</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.151084</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.932421e-06</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Electricity Bosnia and Herzegovina production</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1749151666666667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.4057362</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.8770989e-06</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Electricity Botswana production</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2992879266666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.3915677</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.344941500000001e-06</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Electricity Brazil production</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.024998086</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.619529</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.9701298e-07</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Electricity Brunei production</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2114630866666667</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.5608413</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.896152e-06</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Electricity Burkina Faso production</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.17700208</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.8483234</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.9352876e-06</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Electricity Burundi production</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.08684753333333334</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.0878038</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.4215397e-06</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Electricity Cambodia production</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1703549533333333</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.6325083</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.7499481e-06</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Electricity Cameroon production</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.07992203333333334</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.7224963</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.2284384e-06</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Electricity Canada production</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.04586284333333333</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.7596995</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.2787778e-06</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Electricity Cape Verde production</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2145760466666667</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.2009838</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5.9829496e-06</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Electricity Cayman Islands production</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2418012866666667</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.4236114</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.7420615e-06</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Electricity Central African Republic production</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.002436147</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.2180735</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.7926242e-08</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Electricity Central America production</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.002589450666666667</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.2180735</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.2200756e-08</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Electricity Chad production</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2412022133333334</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.5337389</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.7253576e-06</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Electricity Chile production</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.09006256666666668</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.7705801</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.5111834e-06</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Electricity China production</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1748711533333333</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.5674497</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.8758718e-06</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Electricity CIS production</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.14967052</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.4873647</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.1732111e-06</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Electricity Colombia production</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.07959469333333334</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.7605227</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.2193113e-06</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Electricity Comoros production</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2348214666666667</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.2933692</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6.5474455e-06</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Electricity Congo production</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2528469</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.5732608</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7.0500425e-06</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Electricity Cook Islands production</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1126583533333333</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.0850735</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.1412137e-06</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Electricity Costa Rica production</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.011935426</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.4884684</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.3279135e-07</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Electricity Cote d'Ivoire production</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.14433936</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.1708368</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.0245644e-06</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Electricity Cuba production</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2330733866666667</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.3609746</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.4987044e-06</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Electricity Democratic Republic of Congo production</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.002541112866666667</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.2810606</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.0852969e-08</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Electricity Djibouti production</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2348214666666667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.2933692</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6.5474455e-06</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Electricity Dominica production</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.19081826</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.9472492</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.3205195e-06</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Electricity Dominican Republic production</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2109737466666667</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.7778383</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5.8825079e-06</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Electricity Eastern Africa production</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.002274275533333333</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.1185027</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.3412836e-08</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Electricity Ecuador production</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04713170666666667</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.5904362</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.314157e-06</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Electricity Egypt production</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.17849834</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.3669913</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.9770074e-06</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Electricity El Salvador production</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.07954115333333334</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.5978148</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.2178183e-06</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Electricity Equatorial Guinea production</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.14733876</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.2248853</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.1081956e-06</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Electricity Eritrea production</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.23475324</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.3212741</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.5455432e-06</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Electricity Eswatini production</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.021548668</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.3155434</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.0083403e-07</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Electricity Ethiopia production</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0026379642</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.2365501</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7.3553441e-08</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Electricity Falkland Islands production</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1257612533333334</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.3372731</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.5065575e-06</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Electricity Faroe Islands production</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1421657666666667</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.3958966</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.9639588e-06</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Electricity Fiji production</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.09083836666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.9838373</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.5328147e-06</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Electricity French Guiana production</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2438157533333333</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.4586131</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.7982301e-06</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Electricity French Polynesia production</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1498111733333333</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.4374803</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.177133e-06</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Electricity Gabon production</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.14873126</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.4790322</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.1470222e-06</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Electricity Gambia production</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2557256133333333</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.5865497</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7.1303087e-06</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Electricity Georgia production</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.046894036</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.3711774</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.3075301e-06</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Electricity Ghana production</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1540409333333334</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.3604291</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.2950699e-06</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Electricity Greenland production</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.05364478200000001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.5487509</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.4957589e-06</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Electricity Grenada production</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2390008933333333</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.3972759</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.663979e-06</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Electricity Guam production</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.2107136666666667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.0072046</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.8752562e-06</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Electricity Guatemala production</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.09385139333333334</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.4551688</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.6168259e-06</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Electricity Guinea production</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.08743087333333334</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.0127596</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.4378048e-06</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Electricity Guinea-Bissau production</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2557256133333333</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.5865497</v>
+      </c>
+      <c r="F79" t="n">
+        <v>7.1303087e-06</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Electricity Guyana production</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2438157533333333</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.4586131</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6.7982301e-06</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Electricity Haiti production</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.45620088</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.726265</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.2720091e-05</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Electricity Honduras production</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.12162094</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.1106799</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.3911145e-06</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Electricity Hong Kong production</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.24339398</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.9039027</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.7864699e-06</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Electricity Iceland production</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.001443953733333334</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.6154355</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4.0261261e-08</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Electricity India  production</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2720570533333334</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.2965315</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.5856726e-06</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Electricity Indonesia production</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.2324647733333333</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.0179716</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.4817347e-06</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Electricity Iran production</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1942726933333333</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.5558295</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5.4168382e-06</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Electricity Iraq production</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.3714427133333333</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.8652909</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.0356808e-05</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Electricity Israel production</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1864836733333333</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.3471013</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.1996596e-06</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Electricity Jamaica production</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2230885466666667</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.1258419</v>
+      </c>
+      <c r="F90" t="n">
+        <v>6.2203007e-06</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Electricity Japan production</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1450953733333333</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.5010925</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.0456441e-06</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Electricity Jordan production</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1564080733333333</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.2104205</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.361072e-06</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Electricity Kazakhstan production</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.23236076</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.7919501</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6.4788345e-06</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Electricity Kenya production</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.016391224</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.5615127</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.5703081e-07</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Electricity Kiribati production</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.22195568</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.1129267</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.1887133e-06</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Electricity Kosovo production</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.2595013866666667</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.0392704</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.2355872e-06</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Electricity Kuwait production</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.21710118</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.8692178</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6.0533569e-06</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Electricity Kyrgyzstan production</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.05049480466666667</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.6738147</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.4079291e-06</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Electricity Laos production</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.09149901333333334</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.9121931</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.5512353e-06</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Electricity Lebanon production</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.2125655666666667</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.091278</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5.926892e-06</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Electricity Lesotho production</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0021832574</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.0916287</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6.087501e-08</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Electricity Liberia production</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.08579724000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.9975721</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.3922548e-06</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Electricity Libya production</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.6185360266666666</v>
+      </c>
+      <c r="E103" t="n">
+        <v>8.0184035</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.7246426e-05</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Electricity Macau production</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.1144228133333333</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.9064142</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.1904116e-06</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Electricity Madagascar production</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1527360333333333</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.5529968</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4.2586859e-06</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Electricity Malawi production</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.016114448</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.3456226</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.4931357e-07</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Electricity Malaysia production</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1969254933333333</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.4946932</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5.4908053e-06</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Electricity Maldives production</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2406848866666667</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.4586966</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.7109333e-06</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Electricity Mali production</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.15506316</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.6916924</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.3235723e-06</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Electricity Mauritania production</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1798909133333333</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.8760069</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.0158361e-06</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Electricity Mauritius production</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2042748933333333</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.0370827</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.695726e-06</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Electricity Mexico production</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.17309596</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.5483552</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4.8263747e-06</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Electricity Moldova production</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.2068721733333334</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.7253439</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5.7681451e-06</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Electricity Mongolia production</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.27945176</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.2926374</v>
+      </c>
+      <c r="F114" t="n">
+        <v>7.7918565e-06</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Electricity Montenegro production</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1314808733333333</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.1911176</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.6660355e-06</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Electricity Montserrat production</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.24880228</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.48945</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6.9372678e-06</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Electricity Morocco production</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.2382798066666666</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.9981021</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.6438733e-06</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Electricity Mozambique production</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.03910523</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.4487062</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0903576e-06</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Electricity Myanmar production</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1080536466666667</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.0623862</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.0128223e-06</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Electricity Namibia production</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.019373898</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.6864378</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.4019568e-07</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Electricity Nauru production</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.22195568</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.1129267</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6.1887133e-06</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Electricity Nepal production</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.002975512866666667</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.475136</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8.2965194e-08</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Electricity New Caledonia production</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.21136594</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.8048126</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.8934433e-06</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Electricity New Zealand production</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.02999489266666667</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.7195039</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8.363372e-07</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Electricity Nicaragua production</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.08415254666666667</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.0929295</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.3463963e-06</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Electricity Niger production</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.3611061066666667</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.7883837</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0068596e-05</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Electricity Nigeria production</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1693847</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.3489092</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.7228949e-06</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Electricity North Korea production</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.13471054</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.2010885</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.7560874e-06</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Electricity North Macedonia production</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1997937733333333</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.7896833</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5.5707805e-06</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Electricity Oman production</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.20011478</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.5104419</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5.579731e-06</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Electricity Pakistan production</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1497899466666667</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.680404</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.1765412e-06</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Electricity Palestine production</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1887126666666667</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.8960752</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5.2618098e-06</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Electricity Panama production</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.05323573866666667</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.5593132</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.4843537e-06</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Electricity Papua New Guinea production</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1604036666666667</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.62664</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4.4724798e-06</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Electricity Paraguay production</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.002140846133333333</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.0704231</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5.969247199999999e-08</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Electricity Peru production</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.08439026666666667</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.7270102</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.3530246e-06</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Electricity Philippines production</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.22859718</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.9565625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6.3738959e-06</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Electricity Puerto Rico production</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2438447266666667</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.208614</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6.7990379e-06</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Electricity Qatar production</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1892805066666667</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.3658836</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5.2776428e-06</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Electricity Russia production</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.14493964</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.5590861</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.0413017e-06</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Electricity Rwanda production</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.10380342</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.9235276</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.8943148e-06</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Electricity Saint Helena production</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2378704466666667</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.3361312</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6.6324593e-06</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Electricity Saint Kitts and Nevis production</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.2376167333333334</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.3847067</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6.625385e-06</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Electricity Saint Lucia production</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.24880228</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.48945</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.9372678e-06</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Electricity Saint Pierre and Miquelon production</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.2240260533333334</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.1419636</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.2464408e-06</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Electricity Saint Vincent and the Grenadines production</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.19081826</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.9472492</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5.3205195e-06</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Electricity Samoa production</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1526633466666667</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.4637562</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.2566592e-06</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Electricity Sao Tome and Principe production</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.2376335066666667</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.4173729</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6.6258528e-06</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Electricity Saudi Arabia production</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2009223</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.6430777</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.6022468e-06</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Electricity Senegal production</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1835923</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.8453081</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5.1190404e-06</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Electricity Serbia production</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0.2014907066666667</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.7072301</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5.6180955e-06</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Electricity Seychelles production</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.2012347</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.9776627</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.6109575e-06</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Electricity Sierra Leone production</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.01517243266666667</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.3364973</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4.2304768e-07</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Electricity Singapore production</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1753588133333333</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.3018576</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4.889469e-06</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Electricity Solomon Islands production</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0.22195568</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.1129267</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6.1887133e-06</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Electricity Somalia production</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2104517066666667</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.0644359</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5.8679519e-06</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Electricity South Africa production</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.2535074533333334</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.0226644</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7.0684604e-06</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Electricity South Korea production</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.1457934666666667</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.793495</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4.0651087e-06</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Electricity South Sudan production</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.21564602</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.0571295</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.0127833e-06</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Electricity Sri Lanka production</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1774527666666667</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.5838253</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4.9478539e-06</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Electricity Sudan production</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0.09346737333333333</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.035959</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.6061184e-06</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Electricity Suriname production</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1195696066666667</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.2010317</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.3339179e-06</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Electricity Syria production</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.2179598866666667</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.9353063</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6.0773e-06</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Electricity Taiwan production</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2016035533333334</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.6946887</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5.6212419e-06</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Electricity Tajikistan production</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.03495731333333334</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.4496786</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9.7470265e-07</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Electricity Tanzania production</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0.14683732</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.2373829</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4.0942142e-06</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Electricity Thailand production</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0.17619192</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.4883257</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4.9126982e-06</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Electricity Togo production</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4724067933333334</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.8102573</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.3171955e-05</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Electricity Tonga production</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1946313466666667</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.8559634</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5.4268384e-06</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Electricity Trinidad and Tobago production</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1824717266666667</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.2741827</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.0877959e-06</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Electricity Tunisia production</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0.2027803333333333</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.5612198</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.6540537e-06</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Electricity Turkey production</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.16596986</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.5000612</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.62768e-06</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Electricity Turkmenistan production</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.2036714133333334</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.5361122</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.6788994e-06</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Electricity Turks and Caicos Islands production</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.24880228</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.48945</v>
+      </c>
+      <c r="F174" t="n">
+        <v>6.9372678e-06</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Electricity Uganda production</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0.004718358666666667</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.334634</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.3156036e-07</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Electricity Ukraine production</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.08353221333333333</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.9023767</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.3290998e-06</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Electricity United Arab Emirates production</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.13866494</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.4452975</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.8663465e-06</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Electricity United States production</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.14169066</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.405454</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.9507116e-06</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Electricity United States Virgin Islands production</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.24159538</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.4216749</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6.7363202e-06</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Electricity Uruguay production</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.02547041666666667</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.9289181</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7.101828e-07</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Electricity Uzbekistan production</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1863369466666667</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.3875695</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5.1955685e-06</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Electricity Vanuatu production</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1907278733333334</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.8192544</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5.3179992e-06</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Electricity Venezuela production</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.06789790000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.0643304</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.8931736e-06</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Electricity Vietnam production</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1700223733333333</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.3047181</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4.740675e-06</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Electricity Western Africa production</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.002508557</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.2180735</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6.994522599999999e-08</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Electricity World production</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1550675066666667</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.4995879</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4.3236935e-06</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Electricity Yemen production</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.2183613333333333</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.2550111</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6.0884934e-06</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Electricity Zambia production</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.03725992266666667</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.4520126</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.0389055e-06</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Electricity Zimbabwe production</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1070784</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.0222814</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.9856299e-06</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Electricity Asia production</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1894763666666667</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.6619677</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5.2831038e-06</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Electricity British Virgin Islands production</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0.24880228</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.48945</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6.9372678e-06</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Electricity East Timor production</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0.25866726</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.6278063</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.2123296e-06</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>electricity Rest of the World</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Electricity Oceania production</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1543243333333333</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.2942741</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4.3029719e-06</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>